--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1990.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1990.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.186437562046254</v>
+        <v>0.627927303314209</v>
       </c>
       <c r="B1">
-        <v>2.188515386854324</v>
+        <v>0.893427312374115</v>
       </c>
       <c r="C1">
-        <v>8.141756151198292</v>
+        <v>1.687890410423279</v>
       </c>
       <c r="D1">
-        <v>2.653338404100045</v>
+        <v>7.078995704650879</v>
       </c>
       <c r="E1">
-        <v>1.201653482396347</v>
+        <v>2.614516019821167</v>
       </c>
     </row>
   </sheetData>
